--- a/src/test/java/com/saucedemo/data/test_data.xlsx
+++ b/src/test/java/com/saucedemo/data/test_data.xlsx
@@ -79,7 +79,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -94,25 +97,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.500000"/>
-      <color rgb="FFFFFBEE"/>
-      <name val="Liberation Sans"/>
+      <sz val="11.000000"/>
+      <color theme="1" tint="0"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="36.000000"/>
-      <color rgb="FFF9FF96"/>
-      <name val="Liberation Sans"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14.500000"/>
-      <color rgb="FFFFFBEE"/>
-      <name val="Liberation Sans"/>
-    </font>
-    <font>
-      <sz val="10.000000"/>
-      <color indexed="64"/>
-      <name val="Times New Roman"/>
+      <sz val="11.000000"/>
+      <color theme="1" tint="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -144,18 +137,15 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,30 +687,30 @@
       </c>
     </row>
     <row r="2" ht="42">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>29.989999999999998</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="42">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>15.99</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -731,13 +721,13 @@
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="8">
         <v>7.9900000000000002</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -748,13 +738,13 @@
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="8">
         <v>9.9900000000000002</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -765,13 +755,13 @@
       </c>
     </row>
     <row r="6" ht="18">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="8">
         <v>49.990000000000002</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -782,28 +772,31 @@
       </c>
     </row>
     <row r="7" ht="42">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>15.99</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="B8" s="9"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="7"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="D9" s="7"/>
+      <c r="D9" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
